--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.65233698874534</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="H2">
-        <v>2.65233698874534</v>
+        <v>12.402323</v>
       </c>
       <c r="I2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="J2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65233698874534</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="N2">
-        <v>2.65233698874534</v>
+        <v>12.402323</v>
       </c>
       <c r="O2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="P2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="Q2">
-        <v>7.034891501866697</v>
+        <v>17.09084619959211</v>
       </c>
       <c r="R2">
-        <v>7.034891501866697</v>
+        <v>153.817615796329</v>
       </c>
       <c r="S2">
-        <v>0.02548683050970799</v>
+        <v>0.0405454586691551</v>
       </c>
       <c r="T2">
-        <v>0.02548683050970799</v>
+        <v>0.0405454586691551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.65233698874534</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="H3">
-        <v>2.65233698874534</v>
+        <v>12.402323</v>
       </c>
       <c r="I3">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="J3">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>11.9665365005927</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="N3">
-        <v>11.9665365005927</v>
+        <v>0.013535</v>
       </c>
       <c r="O3">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="P3">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="Q3">
-        <v>31.73928738769324</v>
+        <v>0.01865171575611111</v>
       </c>
       <c r="R3">
-        <v>31.73928738769324</v>
+        <v>0.167865441805</v>
       </c>
       <c r="S3">
-        <v>0.114988815098911</v>
+        <v>4.424838661974972E-05</v>
       </c>
       <c r="T3">
-        <v>0.114988815098911</v>
+        <v>4.424838661974972E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,123 +643,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.65233698874534</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="H4">
-        <v>2.65233698874534</v>
+        <v>12.402323</v>
       </c>
       <c r="I4">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="J4">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99499569102434</v>
+        <v>13.42211</v>
       </c>
       <c r="N4">
-        <v>1.99499569102434</v>
+        <v>40.26633</v>
       </c>
       <c r="O4">
-        <v>0.1200801372254952</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="P4">
-        <v>0.1200801372254952</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="Q4">
-        <v>5.291400863691426</v>
+        <v>55.48844785384332</v>
       </c>
       <c r="R4">
-        <v>5.291400863691426</v>
+        <v>499.3960306845899</v>
       </c>
       <c r="S4">
-        <v>0.01917030801911311</v>
+        <v>0.1316379857848856</v>
       </c>
       <c r="T4">
-        <v>0.01917030801911311</v>
+        <v>0.1316379857848856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9665365005927</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="H5">
-        <v>11.9665365005927</v>
+        <v>12.402323</v>
       </c>
       <c r="I5">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="J5">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.65233698874534</v>
+        <v>2.970297666666667</v>
       </c>
       <c r="N5">
-        <v>2.65233698874534</v>
+        <v>8.910893</v>
       </c>
       <c r="O5">
-        <v>0.1596459536277321</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="P5">
-        <v>0.1596459536277321</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="Q5">
-        <v>31.73928738769324</v>
+        <v>12.27953035604878</v>
       </c>
       <c r="R5">
-        <v>31.73928738769324</v>
+        <v>110.515773204439</v>
       </c>
       <c r="S5">
-        <v>0.114988815098911</v>
+        <v>0.02913133643082538</v>
       </c>
       <c r="T5">
-        <v>0.114988815098911</v>
+        <v>0.02913133643082538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>11.9665365005927</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="H6">
-        <v>11.9665365005927</v>
+        <v>0.013535</v>
       </c>
       <c r="I6">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="J6">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.9665365005927</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="N6">
-        <v>11.9665365005927</v>
+        <v>12.402323</v>
       </c>
       <c r="O6">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="P6">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="Q6">
-        <v>143.1979958200174</v>
+        <v>0.01865171575611111</v>
       </c>
       <c r="R6">
-        <v>143.1979958200174</v>
+        <v>0.167865441805</v>
       </c>
       <c r="S6">
-        <v>0.5187945041975733</v>
+        <v>4.424838661974972E-05</v>
       </c>
       <c r="T6">
-        <v>0.5187945041975733</v>
+        <v>4.424838661974972E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,185 +829,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>11.9665365005927</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="H7">
-        <v>11.9665365005927</v>
+        <v>0.013535</v>
       </c>
       <c r="I7">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="J7">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.99499569102434</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="N7">
-        <v>1.99499569102434</v>
+        <v>0.013535</v>
       </c>
       <c r="O7">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="P7">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="Q7">
-        <v>23.87318875516792</v>
+        <v>2.035513611111111E-05</v>
       </c>
       <c r="R7">
-        <v>23.87318875516792</v>
+        <v>0.000183196225</v>
       </c>
       <c r="S7">
-        <v>0.08649058985028833</v>
+        <v>4.828949487110702E-08</v>
       </c>
       <c r="T7">
-        <v>0.08649058985028833</v>
+        <v>4.828949487110702E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.99499569102434</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="H8">
-        <v>1.99499569102434</v>
+        <v>0.013535</v>
       </c>
       <c r="I8">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="J8">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.65233698874534</v>
+        <v>13.42211</v>
       </c>
       <c r="N8">
-        <v>2.65233698874534</v>
+        <v>40.26633</v>
       </c>
       <c r="O8">
-        <v>0.1596459536277321</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="P8">
-        <v>0.1596459536277321</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="Q8">
-        <v>5.291400863691426</v>
+        <v>0.06055608628333332</v>
       </c>
       <c r="R8">
-        <v>5.291400863691426</v>
+        <v>0.5450047765499999</v>
       </c>
       <c r="S8">
-        <v>0.01917030801911311</v>
+        <v>0.0001436601947553234</v>
       </c>
       <c r="T8">
-        <v>0.01917030801911311</v>
+        <v>0.0001436601947553234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.99499569102434</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="H9">
-        <v>1.99499569102434</v>
+        <v>0.013535</v>
       </c>
       <c r="I9">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="J9">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.9665365005927</v>
+        <v>2.970297666666667</v>
       </c>
       <c r="N9">
-        <v>11.9665365005927</v>
+        <v>8.910893</v>
       </c>
       <c r="O9">
-        <v>0.7202739091467727</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="P9">
-        <v>0.7202739091467727</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="Q9">
-        <v>23.87318875516792</v>
+        <v>0.01340099297277778</v>
       </c>
       <c r="R9">
-        <v>23.87318875516792</v>
+        <v>0.120608936755</v>
       </c>
       <c r="S9">
-        <v>0.08649058985028833</v>
+        <v>3.1791837592943E-05</v>
       </c>
       <c r="T9">
-        <v>0.08649058985028833</v>
+        <v>3.1791837592943E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.42211</v>
+      </c>
+      <c r="H10">
+        <v>40.26633</v>
+      </c>
+      <c r="I10">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="J10">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.134107666666666</v>
+      </c>
+      <c r="N10">
+        <v>12.402323</v>
+      </c>
+      <c r="O10">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="P10">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="Q10">
+        <v>55.48844785384332</v>
+      </c>
+      <c r="R10">
+        <v>499.3960306845899</v>
+      </c>
+      <c r="S10">
+        <v>0.1316379857848856</v>
+      </c>
+      <c r="T10">
+        <v>0.1316379857848856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.42211</v>
+      </c>
+      <c r="H11">
+        <v>40.26633</v>
+      </c>
+      <c r="I11">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="J11">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.004511666666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.013535</v>
+      </c>
+      <c r="O11">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="P11">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="Q11">
+        <v>0.06055608628333332</v>
+      </c>
+      <c r="R11">
+        <v>0.5450047765499999</v>
+      </c>
+      <c r="S11">
+        <v>0.0001436601947553234</v>
+      </c>
+      <c r="T11">
+        <v>0.0001436601947553234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.42211</v>
+      </c>
+      <c r="H12">
+        <v>40.26633</v>
+      </c>
+      <c r="I12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="J12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.42211</v>
+      </c>
+      <c r="N12">
+        <v>40.26633</v>
+      </c>
+      <c r="O12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="P12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="Q12">
+        <v>180.1530368520999</v>
+      </c>
+      <c r="R12">
+        <v>1621.3773316689</v>
+      </c>
+      <c r="S12">
+        <v>0.4273859482735222</v>
+      </c>
+      <c r="T12">
+        <v>0.4273859482735222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.42211</v>
+      </c>
+      <c r="H13">
+        <v>40.26633</v>
+      </c>
+      <c r="I13">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="J13">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.910893</v>
+      </c>
+      <c r="O13">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="P13">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="Q13">
+        <v>39.86766201474333</v>
+      </c>
+      <c r="R13">
+        <v>358.80895813269</v>
+      </c>
+      <c r="S13">
+        <v>0.09458002392492414</v>
+      </c>
+      <c r="T13">
+        <v>0.09458002392492414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="H14">
+        <v>8.910893</v>
+      </c>
+      <c r="I14">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="J14">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.134107666666666</v>
+      </c>
+      <c r="N14">
+        <v>12.402323</v>
+      </c>
+      <c r="O14">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="P14">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="Q14">
+        <v>12.27953035604878</v>
+      </c>
+      <c r="R14">
+        <v>110.515773204439</v>
+      </c>
+      <c r="S14">
+        <v>0.02913133643082538</v>
+      </c>
+      <c r="T14">
+        <v>0.02913133643082538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="H15">
+        <v>8.910893</v>
+      </c>
+      <c r="I15">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="J15">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.004511666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.013535</v>
+      </c>
+      <c r="O15">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="P15">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="Q15">
+        <v>0.01340099297277778</v>
+      </c>
+      <c r="R15">
+        <v>0.120608936755</v>
+      </c>
+      <c r="S15">
+        <v>3.1791837592943E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.1791837592943E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="H10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="I10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="J10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="N10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="O10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="P10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="Q10">
-        <v>3.980007807205684</v>
-      </c>
-      <c r="R10">
-        <v>3.980007807205684</v>
-      </c>
-      <c r="S10">
-        <v>0.01441923935609376</v>
-      </c>
-      <c r="T10">
-        <v>0.01441923935609376</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="H16">
+        <v>8.910893</v>
+      </c>
+      <c r="I16">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="J16">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.42211</v>
+      </c>
+      <c r="N16">
+        <v>40.26633</v>
+      </c>
+      <c r="O16">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="P16">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="Q16">
+        <v>39.86766201474333</v>
+      </c>
+      <c r="R16">
+        <v>358.80895813269</v>
+      </c>
+      <c r="S16">
+        <v>0.09458002392492414</v>
+      </c>
+      <c r="T16">
+        <v>0.09458002392492414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="H17">
+        <v>8.910893</v>
+      </c>
+      <c r="I17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="J17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.910893</v>
+      </c>
+      <c r="O17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="P17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="Q17">
+        <v>8.822668228605444</v>
+      </c>
+      <c r="R17">
+        <v>79.40401405744899</v>
+      </c>
+      <c r="S17">
+        <v>0.02093045164862154</v>
+      </c>
+      <c r="T17">
+        <v>0.02093045164862154</v>
       </c>
     </row>
   </sheetData>
